--- a/biology/Médecine/Famille_Luton/Famille_Luton.xlsx
+++ b/biology/Médecine/Famille_Luton/Famille_Luton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Luton sont une famille française originaire de Reims, ayant donné plusieurs générations de médecins. Elle compte comme membres les plus notables :
 Étienne Alfred Luton (1830-1896), médecin à Reims.
-Ernest Auguste Luton, médecin, fils du précédent. Il poursuit les travaux de son père sur le traitement de la tuberculose[1].
-Pierre Luton, médecin, fils du précédent. Il fonde l'hôpital-sanatorium Sabourin de Clermont-Ferrand en 1936[2]. Marié à Marie Piatot, ils ont sept enfants dont :
+Ernest Auguste Luton, médecin, fils du précédent. Il poursuit les travaux de son père sur le traitement de la tuberculose.
+Pierre Luton, médecin, fils du précédent. Il fonde l'hôpital-sanatorium Sabourin de Clermont-Ferrand en 1936. Marié à Marie Piatot, ils ont sept enfants dont :
 Monique Luton (1924-2005), écrivaine sous le nom de plume Claude Orcival. Mariée à l'homme politique Alain Peyrefitte (1925-1999), ils ont cinq enfants dont :
 Christel Peyrefitte (1951-1996), chercheuse et écrivaine.
-Jean-Pierre Luton (1933-2002), médecin endocrinologue. Il se spécialise dans le traitement des pathologies surrénaliennes dont le syndrome de Cushing[3].
-Jean-Marie Luton (1942-2020), ingénieur aérospatial[4].
-Pierre Collin (1956-), peintre et graveur, est issu des Luton du côté maternel[5].
+Jean-Pierre Luton (1933-2002), médecin endocrinologue. Il se spécialise dans le traitement des pathologies surrénaliennes dont le syndrome de Cushing.
+Jean-Marie Luton (1942-2020), ingénieur aérospatial.
+Pierre Collin (1956-), peintre et graveur, est issu des Luton du côté maternel.
 </t>
         </is>
       </c>
